--- a/Data/Processing/2024-02-02/COLPAL.xlsx
+++ b/Data/Processing/2024-02-02/COLPAL.xlsx
@@ -2013,7 +2013,7 @@
         <v>45001</v>
       </c>
       <c r="B30">
-        <v>1465.27</v>
+        <v>1465.26</v>
       </c>
       <c r="C30">
         <v>1473.03</v>
@@ -2043,7 +2043,7 @@
         <v>-0.9</v>
       </c>
       <c r="L30">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M30">
         <v>-0.52</v>
@@ -2669,7 +2669,7 @@
         <v>1508.88</v>
       </c>
       <c r="D43">
-        <v>1489.74</v>
+        <v>1489.73</v>
       </c>
       <c r="E43">
         <v>1502.97</v>
@@ -2763,7 +2763,7 @@
         <v>45027</v>
       </c>
       <c r="B45">
-        <v>1502.38</v>
+        <v>1502.39</v>
       </c>
       <c r="C45">
         <v>1509.52</v>
@@ -2793,7 +2793,7 @@
         <v>-0.92</v>
       </c>
       <c r="L45">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="M45">
         <v>0.8600000000000001</v>
@@ -3063,7 +3063,7 @@
         <v>45036</v>
       </c>
       <c r="B51">
-        <v>1493.11</v>
+        <v>1493.1</v>
       </c>
       <c r="C51">
         <v>1504.09</v>
@@ -3093,7 +3093,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="L51">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="M51">
         <v>-0.2</v>
@@ -3672,7 +3672,7 @@
         <v>1535.35</v>
       </c>
       <c r="E63">
-        <v>1545.41</v>
+        <v>1545.42</v>
       </c>
       <c r="F63">
         <v>1536.67</v>
@@ -3702,7 +3702,7 @@
         <v>1.22</v>
       </c>
       <c r="O63">
-        <v>1495.033181818182</v>
+        <v>1495.033409090909</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>1567.39</v>
       </c>
       <c r="F64">
-        <v>1545.41</v>
+        <v>1545.42</v>
       </c>
       <c r="G64">
         <v>306721</v>
@@ -3743,7 +3743,7 @@
         <v>-0.08</v>
       </c>
       <c r="L64">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="M64">
         <v>-0.1499999999999999</v>
@@ -3752,7 +3752,7 @@
         <v>1.53</v>
       </c>
       <c r="O64">
-        <v>1497.742727272727</v>
+        <v>1497.742954545454</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>1.52</v>
       </c>
       <c r="O65">
-        <v>1500.595454545454</v>
+        <v>1500.595681818182</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>1.74</v>
       </c>
       <c r="O66">
-        <v>1503.410681818182</v>
+        <v>1503.410909090909</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>7.23</v>
       </c>
       <c r="O67">
-        <v>1507.074772727273</v>
+        <v>1507.075</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>2.49</v>
       </c>
       <c r="O68">
-        <v>1510.607045454546</v>
+        <v>1510.607272727273</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>2.43</v>
       </c>
       <c r="O69">
-        <v>1514.482272727273</v>
+        <v>1514.4825</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>3.36</v>
       </c>
       <c r="O70">
-        <v>1517.557045454545</v>
+        <v>1517.557272727273</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>1.24</v>
       </c>
       <c r="O71">
-        <v>1520.390454545455</v>
+        <v>1520.390681818182</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>1.54</v>
       </c>
       <c r="O72">
-        <v>1523.335909090909</v>
+        <v>1523.336136363637</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>2.25</v>
       </c>
       <c r="O73">
-        <v>1525.725227272727</v>
+        <v>1525.725454545455</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.29</v>
       </c>
       <c r="O74">
-        <v>1528.269090909091</v>
+        <v>1528.269318181818</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.93</v>
       </c>
       <c r="O75">
-        <v>1530.797954545455</v>
+        <v>1530.798181818182</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>1.63</v>
       </c>
       <c r="O76">
-        <v>1533.551136363636</v>
+        <v>1533.551363636363</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="O77">
-        <v>1536.457045454546</v>
+        <v>1536.457272727273</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>1.31</v>
       </c>
       <c r="O78">
-        <v>1538.833409090909</v>
+        <v>1538.833636363636</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>3.77</v>
       </c>
       <c r="O79">
-        <v>1540.859318181818</v>
+        <v>1540.859545454546</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>1.5</v>
       </c>
       <c r="O80">
-        <v>1543.765454545455</v>
+        <v>1543.765681818182</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0.99</v>
       </c>
       <c r="O81">
-        <v>1546.6525</v>
+        <v>1546.652727272727</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.47</v>
       </c>
       <c r="O82">
-        <v>1549.548863636363</v>
+        <v>1549.549090909091</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>1.54</v>
       </c>
       <c r="O83">
-        <v>1552.777272727273</v>
+        <v>1552.7775</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.04</v>
       </c>
       <c r="O84">
-        <v>1556.121590909091</v>
+        <v>1556.121818181818</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>1.67</v>
       </c>
       <c r="O85">
-        <v>1558.738636363636</v>
+        <v>1558.738863636364</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>2.41</v>
       </c>
       <c r="O86">
-        <v>1560.429545454545</v>
+        <v>1560.429772727273</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>2.22</v>
       </c>
       <c r="O87">
-        <v>1562.846136363636</v>
+        <v>1562.846363636364</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>2.64</v>
       </c>
       <c r="O88">
-        <v>1565.786363636364</v>
+        <v>1565.786590909091</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>1.49</v>
       </c>
       <c r="O89">
-        <v>1568.698636363637</v>
+        <v>1568.698863636364</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1.32</v>
       </c>
       <c r="O90">
-        <v>1571.148636363636</v>
+        <v>1571.148863636363</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>1.63</v>
       </c>
       <c r="O91">
-        <v>1574.076590909091</v>
+        <v>1574.076818181818</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>1.95</v>
       </c>
       <c r="O92">
-        <v>1576.556590909091</v>
+        <v>1576.556818181818</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>1.3</v>
       </c>
       <c r="O93">
-        <v>1579.092727272727</v>
+        <v>1579.092954545455</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>2.45</v>
       </c>
       <c r="O94">
-        <v>1582.310681818182</v>
+        <v>1582.310909090909</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1.43</v>
       </c>
       <c r="O95">
-        <v>1585.014545454545</v>
+        <v>1585.014772727273</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.11</v>
       </c>
       <c r="O96">
-        <v>1587.515909090909</v>
+        <v>1587.516136363636</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>2.76</v>
       </c>
       <c r="O97">
-        <v>1590.158636363637</v>
+        <v>1590.158863636364</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>1.62</v>
       </c>
       <c r="O98">
-        <v>1593.430227272728</v>
+        <v>1593.430454545454</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>1596.536363636364</v>
+        <v>1596.536590909091</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.24</v>
       </c>
       <c r="O100">
-        <v>1599.439318181818</v>
+        <v>1599.439545454545</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1.21</v>
       </c>
       <c r="O101">
-        <v>1602.022954545455</v>
+        <v>1602.023181818182</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>3.48</v>
       </c>
       <c r="O102">
-        <v>1605.402727272727</v>
+        <v>1605.402954545454</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>5.01</v>
       </c>
       <c r="O103">
-        <v>1610.563863636364</v>
+        <v>1610.564090909091</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>2.18</v>
       </c>
       <c r="O104">
-        <v>1615.410227272727</v>
+        <v>1615.410454545455</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>1.87</v>
       </c>
       <c r="O105">
-        <v>1620.375454545455</v>
+        <v>1620.375681818182</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>1.89</v>
       </c>
       <c r="O106">
-        <v>1625.468181818182</v>
+        <v>1625.468409090909</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>1.85</v>
       </c>
       <c r="O110">
-        <v>1645.325454545455</v>
+        <v>1645.325454545454</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>1.57</v>
       </c>
       <c r="O149">
-        <v>1918.001136363637</v>
+        <v>1918.001136363636</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>1.66</v>
       </c>
       <c r="O150">
-        <v>1923.206363636364</v>
+        <v>1923.206363636363</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>0.77</v>
       </c>
       <c r="O159">
-        <v>1956.096363636363</v>
+        <v>1956.096363636364</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>0.91</v>
       </c>
       <c r="O175">
-        <v>1976.396363636364</v>
+        <v>1976.396363636363</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>1.76</v>
       </c>
       <c r="O180">
-        <v>1986.531363636364</v>
+        <v>1986.531363636363</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>1.99</v>
       </c>
       <c r="O185">
-        <v>2001.757954545454</v>
+        <v>2001.757954545455</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>1.75</v>
       </c>
       <c r="O186">
-        <v>2005.468863636363</v>
+        <v>2005.468863636364</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>0.86</v>
       </c>
       <c r="O200">
-        <v>2064.726136363636</v>
+        <v>2064.726136363637</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1.31</v>
       </c>
       <c r="O201">
-        <v>2069.452954545455</v>
+        <v>2069.452954545454</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>2.8</v>
       </c>
       <c r="O220">
-        <v>2211.455681818182</v>
+        <v>2211.455681818181</v>
       </c>
       <c r="P220">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>1.93</v>
       </c>
       <c r="O224">
-        <v>2252.239545454545</v>
+        <v>2252.239545454546</v>
       </c>
       <c r="P224">
         <v>0</v>
@@ -12173,7 +12173,7 @@
         <v>2.14</v>
       </c>
       <c r="O229">
-        <v>2301.317045454545</v>
+        <v>2301.317045454546</v>
       </c>
       <c r="P229">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>2.28</v>
       </c>
       <c r="O231">
-        <v>2315.917045454545</v>
+        <v>2315.917045454546</v>
       </c>
       <c r="P231">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>2.61</v>
       </c>
       <c r="O235">
-        <v>2347.807954545454</v>
+        <v>2347.807954545455</v>
       </c>
       <c r="P235">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="O239">
-        <v>2380.018181818181</v>
+        <v>2380.018181818182</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -13293,7 +13293,7 @@
         <v>5.55</v>
       </c>
       <c r="O240">
-        <v>2385.860227272728</v>
+        <v>2385.860227272727</v>
       </c>
       <c r="P240">
         <v>0</v>
